--- a/ulaştırmama.xlsx
+++ b/ulaştırmama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>321.66578805372654</v>
+        <v>321.5459974835008</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>325.9413148298298</v>
+        <v>325.8457186086204</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>329.5397784562286</v>
+        <v>329.46833674998993</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>333.0278397145106</v>
+        <v>333.0332598551063</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>337.39450519317575</v>
+        <v>337.3819968905382</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>339.8695370327777</v>
+        <v>339.8691980164177</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>342.2001247852412</v>
+        <v>342.2318166341838</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>346.60933470834993</v>
+        <v>346.6511920950497</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>349.236085919842</v>
+        <v>349.21993077841483</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>349.99091611212657</v>
+        <v>350.05177562686805</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>354.49263351093094</v>
+        <v>354.42047426267095</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>357.81998602605967</v>
+        <v>357.8957614042482</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>360.5319287469583</v>
+        <v>360.485292148887</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>362.4306050095902</v>
+        <v>362.4327545773676</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>366.06370568842766</v>
+        <v>366.0433687733465</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>369.24593170167543</v>
+        <v>369.1847319663588</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>371.18162922057746</v>
+        <v>371.1930162199816</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>375.8527114663053</v>
+        <v>375.82332687584613</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>379.6394021566019</v>
+        <v>379.62308545077127</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>381.61168183186237</v>
+        <v>381.5919705515981</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>386.01277173801924</v>
+        <v>386.06531125532996</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>391.5061383702334</v>
+        <v>391.48600206374175</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>392.5680298795586</v>
+        <v>392.63948756181253</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>395.3825842533916</v>
+        <v>395.29347873687897</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>399.76261001321876</v>
+        <v>399.78787569848674</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>404.2708449255536</v>
+        <v>404.23790154555616</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>406.42750133806663</v>
+        <v>406.42336811038973</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>410.4449018051261</v>
+        <v>410.4304320372988</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>416.1935550819296</v>
+        <v>416.18963439951244</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>419.48310777782194</v>
+        <v>419.43186995915084</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>422.4436945911619</v>
+        <v>422.4293698111768</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>428.4775133551278</v>
+        <v>428.1563247890493</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>433.1397287991664</v>
+        <v>433.2395004092047</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>444.5443678741121</v>
+        <v>444.451931210122</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>450.7147469763522</v>
+        <v>450.94511617622436</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>455.43061509157405</v>
+        <v>455.5196639310105</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>459.7524499105869</v>
+        <v>459.68330756707155</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>463.1008594384497</v>
+        <v>463.12303597267675</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>469.96668275205695</v>
+        <v>469.91106610965824</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>475.2754017999388</v>
+        <v>475.3758821812059</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>478.17930792253065</v>
+        <v>477.96800683158745</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>480.53041112951604</v>
+        <v>480.7058987424684</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>491.00330798302224</v>
+        <v>490.80109295081917</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>493.6622877113814</v>
+        <v>494.2231737345364</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>497.916017666096</v>
+        <v>497.66071354442494</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>492.9418752434531</v>
+        <v>493.0717650628839</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>498.73671624481096</v>
+        <v>498.5484116746427</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>506.71322806600415</v>
+        <v>507.008681767527</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>509.0208760986727</v>
+        <v>509.0884886212286</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>505.6417680293392</v>
+        <v>505.8536492764744</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>510.7425866228802</v>
+        <v>510.6286753417247</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>512.7058252853695</v>
+        <v>512.3606038208493</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>513.6081248341769</v>
+        <v>513.6950655793636</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>530.5232318639736</v>
+        <v>530.135419515446</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>539.2049114261417</v>
+        <v>539.3187673520997</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>549.9866404090942</v>
+        <v>549.8763126758829</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>568.7218647490845</v>
+        <v>568.6379238601861</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>588.2339422807518</v>
+        <v>588.1366491909273</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>605.9623647234531</v>
+        <v>605.5272079448515</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>628.6351313942765</v>
+        <v>627.909075280217</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>667.1820994997906</v>
+        <v>666.9601634996034</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>718.2540489325428</v>
+        <v>717.7484640515684</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>755.9767869238312</v>
+        <v>756.1854860139568</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>810.0668092604118</v>
+        <v>810.376604999237</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>873.7854417064839</v>
+        <v>874.1117745013898</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>916.2896218765229</v>
+        <v>917.3912887579745</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>965.4160073951924</v>
+        <v>966.2162940261725</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1011.7871912372021</v>
+        <v>1012.0400923189601</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1037.2075214919905</v>
+        <v>1037.027957467078</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1077.1064574572006</v>
+        <v>1076.525153120788</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1133.827614752533</v>
+        <v>1133.654447885907</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1181.704224195359</v>
+        <v>1182.251616232874</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1221.1340679233729</v>
+        <v>1221.3555684242956</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1257.6312953819245</v>
+        <v>1257.889101188046</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1302.2167988217068</v>
+        <v>1302.5826286267306</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1343.8042649618494</v>
+        <v>1343.6007909311877</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1374.6454970954278</v>
+        <v>1375.0238486517203</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1424.329312441137</v>
+        <v>1422.6932313927448</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1469.1721754836608</v>
+        <v>1468.9097892404588</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1552.8856477545937</v>
+        <v>1551.3813243144677</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1907.7182387162054</v>
+        <v>1908.161948662139</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2037.6175573723206</v>
+        <v>2037.5082612090687</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2125.2521406874985</v>
+        <v>2126.611597424322</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2204.166436485021</v>
+        <v>2203.353672538423</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2293.247920879533</v>
+        <v>2295.6056794402116</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2410.988402821373</v>
+        <v>2418.5283035793104</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2486.6111778340296</v>
+        <v>2491.0928843285396</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2577.059141787839</v>
+        <v>2553.855953485381</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2695.1156218997808</v>
+        <v>2660.8608961091254</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2792.9829394485773</v>
+        <v>2764.03762112212</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2908.771304118965</v>
+        <v>2883.4855823646258</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2990.454280725984</v>
+        <v>2978.6264646536215</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3100.239071419016</v>
+        <v>3098.880889936441</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3167.6835839733044</v>
+        <v>3186.8907173524553</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3260.5355250627676</v>
+        <v>3303.004498947745</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3385.2097111258204</v>
+        <v>3459.294588350472</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>3493.7350377383664</v>
+        <v>3600.7013531618595</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>3586.349305582127</v>
+        <v>3728.499912867727</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3746.291594524222</v>
+        <v>3946.4403269843388</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3872.255388037084</v>
+        <v>4180.544477916792</v>
       </c>
     </row>
   </sheetData>

--- a/ulaştırmama.xlsx
+++ b/ulaştırmama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>321.5459974835008</v>
+        <v>321.66578113240575</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>325.8457186086204</v>
+        <v>325.92337153748576</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>329.46833674998993</v>
+        <v>329.50264649761317</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>333.0332598551063</v>
+        <v>332.9360368881345</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>337.3819968905382</v>
+        <v>337.31293858791935</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>339.8691980164177</v>
+        <v>339.7782758307909</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>342.2318166341838</v>
+        <v>342.08558919164426</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>346.6511920950497</v>
+        <v>346.48574617689604</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>349.21993077841483</v>
+        <v>349.1511469864937</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>350.05177562686805</v>
+        <v>349.8525384104256</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>354.42047426267095</v>
+        <v>354.4439128679317</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>357.8957614042482</v>
+        <v>357.6681390983096</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>360.485292148887</v>
+        <v>360.46561703064964</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>362.4327545773676</v>
+        <v>362.3293830991432</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>366.0433687733465</v>
+        <v>365.9776841233546</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>369.1847319663588</v>
+        <v>369.18715182084554</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>371.1930162199816</v>
+        <v>371.0725314927955</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>375.82332687584613</v>
+        <v>375.7702142327626</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>379.62308545077127</v>
+        <v>379.54682376786775</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>381.5919705515981</v>
+        <v>381.52112106348966</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>386.06531125532996</v>
+        <v>385.8711622612389</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>391.48600206374175</v>
+        <v>391.4127644242287</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>392.63948756181253</v>
+        <v>392.4116496179022</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>395.29347873687897</v>
+        <v>395.3360298817136</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>399.78787569848674</v>
+        <v>399.6359982972436</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>404.23790154555616</v>
+        <v>404.1829454283988</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>406.42336811038973</v>
+        <v>406.31940627991565</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>410.4304320372988</v>
+        <v>410.342813651197</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>416.18963439951244</v>
+        <v>416.0824054062416</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>419.43186995915084</v>
+        <v>419.40377972960806</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>422.4293698111768</v>
+        <v>422.33838325529905</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>428.1563247890493</v>
+        <v>428.58181595860066</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>433.2395004092047</v>
+        <v>432.9530938499945</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>444.451931210122</v>
+        <v>444.48624159622295</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>450.94511617622436</v>
+        <v>450.43283191105274</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>455.5196639310105</v>
+        <v>455.2447664435063</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>459.68330756707155</v>
+        <v>459.67441274923846</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>463.12303597267675</v>
+        <v>462.9592723726832</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>469.91106610965824</v>
+        <v>469.87649389616973</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>475.3758821812059</v>
+        <v>475.0762415318528</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>477.96800683158745</v>
+        <v>478.19423820998946</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>480.7058987424684</v>
+        <v>480.278763642502</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>490.80109295081917</v>
+        <v>491.00795239593884</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>494.2231737345364</v>
+        <v>493.1414427212142</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>497.66071354442494</v>
+        <v>497.95531413811966</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>493.0717650628839</v>
+        <v>492.71838561109655</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>498.5484116746427</v>
+        <v>498.73026271553357</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>507.008681767527</v>
+        <v>506.3709582244346</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>509.0884886212286</v>
+        <v>508.83474249860785</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>505.8536492764744</v>
+        <v>505.3580828445624</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>510.6286753417247</v>
+        <v>510.68134429728514</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>512.3606038208493</v>
+        <v>512.8036510875838</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>513.6950655793636</v>
+        <v>513.4088388231258</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>530.135419515446</v>
+        <v>530.6450769572505</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>539.3187673520997</v>
+        <v>538.9792511676524</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>549.8763126758829</v>
+        <v>549.9127104734757</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>568.6379238601861</v>
+        <v>568.6242617170286</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>588.1366491909273</v>
+        <v>588.1401344233856</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>605.5272079448515</v>
+        <v>606.0971554568</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>627.909075280217</v>
+        <v>628.9650389978503</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>666.9601634996034</v>
+        <v>667.1534997149757</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>717.7484640515684</v>
+        <v>718.405454866865</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>756.1854860139568</v>
+        <v>755.6272114677922</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>810.376604999237</v>
+        <v>809.6322311690844</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>874.1117745013898</v>
+        <v>873.3202348618061</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>917.3912887579745</v>
+        <v>915.2809056495714</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>966.2162940261725</v>
+        <v>964.6067809386385</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1012.0400923189601</v>
+        <v>1011.3208965147543</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1037.027957467078</v>
+        <v>1037.0778406570585</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1076.525153120788</v>
+        <v>1077.2206976108807</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1133.654447885907</v>
+        <v>1133.6483973348625</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1182.251616232874</v>
+        <v>1181.011901886431</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1221.3555684242956</v>
+        <v>1220.6501578415516</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1257.889101188046</v>
+        <v>1257.1057960119158</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1302.5826286267306</v>
+        <v>1301.594906860898</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1343.6007909311877</v>
+        <v>1343.5513002733037</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1375.0238486517203</v>
+        <v>1373.971990238602</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1422.6932313927448</v>
+        <v>1425.0132878334941</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1468.9097892404588</v>
+        <v>1468.8616274446206</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1551.3813243144677</v>
+        <v>1553.4444665303731</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1908.161948662139</v>
+        <v>1906.9594649179107</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2037.5082612090687</v>
+        <v>2037.2614451019606</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2126.611597424322</v>
+        <v>2123.816592199278</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2203.353672538423</v>
+        <v>2204.186334195285</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2295.6056794402116</v>
+        <v>2293.4482676054135</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2418.5283035793104</v>
+        <v>2417.6654417981367</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2491.0928843285396</v>
+        <v>2485.3366752073184</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2553.855953485381</v>
+        <v>2540.829314505671</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2660.8608961091254</v>
+        <v>2683.0288783657957</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2764.03762112212</v>
+        <v>2791.459378191364</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2883.4855823646258</v>
+        <v>2913.3477794370738</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2978.6264646536215</v>
+        <v>2997.933619739883</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3098.880889936441</v>
+        <v>3116.7025601572736</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3186.8907173524553</v>
+        <v>3189.779670300136</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3303.004498947745</v>
+        <v>3291.008384964141</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3459.294588350472</v>
+        <v>3423.862825010623</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>3600.7013531618595</v>
+        <v>3541.0382416690272</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>3728.499912867727</v>
+        <v>3634.2809420543667</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3946.4403269843388</v>
+        <v>3819.285350725032</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,15 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4180.544477916792</v>
+        <v>4011.6390270520087</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45748.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4116.299803571116</v>
       </c>
     </row>
   </sheetData>

--- a/ulaştırmama.xlsx
+++ b/ulaştırmama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>321.66578113240575</v>
+        <v>321.6655852946514</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>325.92337153748576</v>
+        <v>325.923236193734</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>329.50264649761317</v>
+        <v>329.50257881997544</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>332.9360368881345</v>
+        <v>332.9361598563008</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>337.31293858791935</v>
+        <v>337.31302473750105</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>339.7782758307909</v>
+        <v>339.77839557276707</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>342.08558919164426</v>
+        <v>342.0857900115824</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>346.48574617689604</v>
+        <v>346.48597746026985</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>349.1511469864937</v>
+        <v>349.1512424498291</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>349.8525384104256</v>
+        <v>349.8528207723853</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>354.4439128679317</v>
+        <v>354.44387998242604</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>357.6681390983096</v>
+        <v>357.66846562797247</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>360.46561703064964</v>
+        <v>360.46563934991127</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>362.3293830991432</v>
+        <v>362.32952786695074</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>365.9776841233546</v>
+        <v>365.97777248554996</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>369.18715182084554</v>
+        <v>369.1871430578928</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>371.0725314927955</v>
+        <v>371.0726973836299</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>375.7702142327626</v>
+        <v>375.77028462258687</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>379.54682376786775</v>
+        <v>379.5469272996368</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>381.52112106348966</v>
+        <v>381.52121607680857</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>385.8711622612389</v>
+        <v>385.871433466632</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>391.4127644242287</v>
+        <v>391.41286410931644</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>392.4116496179022</v>
+        <v>392.411968629226</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>395.3360298817136</v>
+        <v>395.3359629458435</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>399.6359982972436</v>
+        <v>399.63620907809485</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>404.1829454283988</v>
+        <v>404.18301833979865</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>406.31940627991565</v>
+        <v>406.3195482679192</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>410.342813651197</v>
+        <v>410.3429323071048</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>416.0824054062416</v>
+        <v>416.08255275275116</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>419.40377972960806</v>
+        <v>419.40381362802265</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>422.33838325529905</v>
+        <v>422.3385059973499</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>428.58181595860066</v>
+        <v>428.5812018453342</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>432.9530938499945</v>
+        <v>432.9534946843489</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>444.48624159622295</v>
+        <v>444.48618721404614</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>450.43283191105274</v>
+        <v>450.4335566961108</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>455.2447664435063</v>
+        <v>455.24515230425675</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>459.67441274923846</v>
+        <v>459.6744187914582</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>462.9592723726832</v>
+        <v>462.9594984698529</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>469.87649389616973</v>
+        <v>469.8765365902027</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>475.0762415318528</v>
+        <v>475.0766624669632</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>478.19423820998946</v>
+        <v>478.19390810745955</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>480.278763642502</v>
+        <v>480.2793643158742</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>491.00795239593884</v>
+        <v>491.00765158599376</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>493.1414427212142</v>
+        <v>493.14297798068833</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>497.95531413811966</v>
+        <v>497.95488809328</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>492.71838561109655</v>
+        <v>492.71888033892714</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>498.73026271553357</v>
+        <v>498.7299953936114</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>506.3709582244346</v>
+        <v>506.37186199660863</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>508.83474249860785</v>
+        <v>508.8350988061575</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>505.3580828445624</v>
+        <v>505.358781194163</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>510.68134429728514</v>
+        <v>510.6812621037631</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>512.8036510875838</v>
+        <v>512.8030107297674</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>513.4088388231258</v>
+        <v>513.409236467026</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>530.6450769572505</v>
+        <v>530.644342841175</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>538.9792511676524</v>
+        <v>538.9797274355809</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>549.9127104734757</v>
+        <v>549.9126491580682</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>568.6242617170286</v>
+        <v>568.6242728985775</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>588.1401344233856</v>
+        <v>588.1401210897626</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>606.0971554568</v>
+        <v>606.0963308567252</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>628.9650389978503</v>
+        <v>628.963517108504</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>667.1534997149757</v>
+        <v>667.1532110094961</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>718.405454866865</v>
+        <v>718.4045086280854</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>755.6272114677922</v>
+        <v>755.6279944996018</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>809.6322311690844</v>
+        <v>809.6332810679213</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>873.3202348618061</v>
+        <v>873.321357535959</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>915.2809056495714</v>
+        <v>915.2839024566794</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>964.6067809386385</v>
+        <v>964.6090420992945</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1011.3208965147543</v>
+        <v>1011.3219668795916</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1037.0778406570585</v>
+        <v>1037.0776402604097</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1077.2206976108807</v>
+        <v>1077.2196578177536</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1133.6483973348625</v>
+        <v>1133.648345961101</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1181.011901886431</v>
+        <v>1181.0136246369702</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1220.6501578415516</v>
+        <v>1220.6511376161166</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1257.1057960119158</v>
+        <v>1257.1069118029102</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1301.594906860898</v>
+        <v>1301.596350928807</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1343.5513002733037</v>
+        <v>1343.551449675604</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1373.971990238602</v>
+        <v>1373.9736136585145</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1425.0132878334941</v>
+        <v>1425.010160967144</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1468.8616274446206</v>
+        <v>1468.8620162765092</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1553.4444665303731</v>
+        <v>1553.4417025515768</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1906.9594649179107</v>
+        <v>1906.9608927764973</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2037.2614451019606</v>
+        <v>2037.2612905624112</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2123.816592199278</v>
+        <v>2123.8202391707155</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2204.186334195285</v>
+        <v>2204.18487576776</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2293.4482676054135</v>
+        <v>2293.4511429936388</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2417.6654417981367</v>
+        <v>2417.6665519138887</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2485.3366752073184</v>
+        <v>2485.342431460364</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2540.829314505671</v>
+        <v>2540.8491154461067</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2683.0288783657957</v>
+        <v>2682.991779092109</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2791.459378191364</v>
+        <v>2791.419206082032</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2913.3477794370738</v>
+        <v>2913.3048175261274</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2997.933619739883</v>
+        <v>2997.9069233766522</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3116.7025601572736</v>
+        <v>3116.678444583535</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3189.779670300136</v>
+        <v>3189.7781393706728</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3291.008384964141</v>
+        <v>3291.0290566553044</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3423.862825010623</v>
+        <v>3423.9179132967083</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>3541.0382416690272</v>
+        <v>3541.128723976509</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>3634.2809420543667</v>
+        <v>3634.4210234478587</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3819.285350725032</v>
+        <v>3819.4764715343426</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4011.6390270520087</v>
+        <v>4011.8838354887016</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>4116.299803571116</v>
+        <v>4116.702662345235</v>
       </c>
     </row>
   </sheetData>

--- a/ulaştırmama.xlsx
+++ b/ulaştırmama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>321.6655852946514</v>
+        <v>320.8135305851547</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>325.923236193734</v>
+        <v>325.18364735130825</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>329.50257881997544</v>
+        <v>328.9882522402173</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>332.9361598563008</v>
+        <v>333.2709860977499</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>337.31302473750105</v>
+        <v>337.00755912660054</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>339.77839557276707</v>
+        <v>339.1638796295544</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>342.0857900115824</v>
+        <v>342.48195174956624</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>346.48597746026985</v>
+        <v>346.0184006504101</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>349.1512424498291</v>
+        <v>348.65638977467177</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>349.8528207723853</v>
+        <v>350.4113050571847</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>354.44387998242604</v>
+        <v>354.17555130913587</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>357.66846562797247</v>
+        <v>357.50505287327593</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>360.46563934991127</v>
+        <v>361.340829741864</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>362.32952786695074</v>
+        <v>361.95415035878807</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>365.97777248554996</v>
+        <v>365.71370135985836</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>369.1871430578928</v>
+        <v>368.25816806703097</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>371.0726973836299</v>
+        <v>371.08199473527105</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>375.77028462258687</v>
+        <v>375.7297840664359</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>379.5469272996368</v>
+        <v>379.1670746224032</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>381.52121607680857</v>
+        <v>381.8494748970034</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>385.871433466632</v>
+        <v>387.0145957075835</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>391.41286410931644</v>
+        <v>390.7250865042049</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>392.411968629226</v>
+        <v>392.10575433173517</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>395.3359629458435</v>
+        <v>395.96929948737187</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>399.63620907809485</v>
+        <v>397.9692082458233</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>404.18301833979865</v>
+        <v>403.859283555524</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>406.3195482679192</v>
+        <v>407.0060188059589</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>410.3429323071048</v>
+        <v>410.6976064898222</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>416.08255275275116</v>
+        <v>415.1188574771588</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>419.40381362802265</v>
+        <v>420.237681751506</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>422.3385059973499</v>
+        <v>421.9794000844333</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>428.5812018453342</v>
+        <v>426.9936284546845</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>432.9534946843489</v>
+        <v>433.13404823623375</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>444.48618721404614</v>
+        <v>443.5280777344353</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>450.4335566961108</v>
+        <v>451.4533176550636</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>455.24515230425675</v>
+        <v>455.1122339625162</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>459.6744187914582</v>
+        <v>459.39850911142474</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>462.9594984698529</v>
+        <v>464.0923078922315</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>469.8765365902027</v>
+        <v>468.4854845247311</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>475.0766624669632</v>
+        <v>474.19425024903984</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>478.19390810745955</v>
+        <v>478.433300393177</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>480.2793643158742</v>
+        <v>480.8536117898503</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>491.00765158599376</v>
+        <v>489.6153827919944</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>493.14297798068833</v>
+        <v>495.72411091040306</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>497.95488809328</v>
+        <v>495.8089393938758</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>492.71888033892714</v>
+        <v>493.5927376940106</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>498.7299953936114</v>
+        <v>498.00645054410035</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>506.37186199660863</v>
+        <v>506.0215371017781</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>508.8350988061575</v>
+        <v>508.9053500987054</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>505.358781194163</v>
+        <v>506.32808801735047</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>510.6812621037631</v>
+        <v>510.7264696646465</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>512.8030107297674</v>
+        <v>511.7314055754966</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>513.409236467026</v>
+        <v>514.1600333851753</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>530.644342841175</v>
+        <v>527.9633498344655</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>538.9797274355809</v>
+        <v>540.0038888091511</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>549.9126491580682</v>
+        <v>548.7343133532802</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>568.6242728985775</v>
+        <v>568.5566458210834</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>588.1401210897626</v>
+        <v>587.457481047914</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>606.0963308567252</v>
+        <v>606.6750831890694</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>628.963517108504</v>
+        <v>626.6853019224095</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>667.1532110094961</v>
+        <v>668.3030017853923</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>718.4045086280854</v>
+        <v>714.7141991753101</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>755.6279944996018</v>
+        <v>755.5549332369351</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>809.6332810679213</v>
+        <v>810.3486758078342</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>873.321357535959</v>
+        <v>873.5916214059857</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>915.2839024566794</v>
+        <v>917.4925934760028</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>964.6090420992945</v>
+        <v>963.8125506657149</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1011.3219668795916</v>
+        <v>1012.8952602364776</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1037.0776402604097</v>
+        <v>1039.5489335903178</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1077.2196578177536</v>
+        <v>1080.290715681696</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1133.648345961101</v>
+        <v>1130.8464410638185</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1181.0136246369702</v>
+        <v>1185.0892582250708</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1220.6511376161166</v>
+        <v>1219.0858263278726</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1257.1069118029102</v>
+        <v>1257.195642873304</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1301.596350928807</v>
+        <v>1300.2909817905788</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1343.551449675604</v>
+        <v>1342.498192571074</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1373.9736136585145</v>
+        <v>1366.9128933866707</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1425.010160967144</v>
+        <v>1411.227069235442</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1468.8620162765092</v>
+        <v>1463.852878275707</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1553.4417025515768</v>
+        <v>1533.7895725405674</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1906.9608927764973</v>
+        <v>1923.2602153635974</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2037.2612905624112</v>
+        <v>2049.2899926062005</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2123.8202391707155</v>
+        <v>2136.3279016020215</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2204.18487576776</v>
+        <v>2212.0649472057326</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2293.4511429936388</v>
+        <v>2306.0536344724687</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2417.6665519138887</v>
+        <v>2418.9189754421773</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2485.342431460364</v>
+        <v>2476.7302804666947</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2540.8491154461067</v>
+        <v>2520.4643734422393</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2682.991779092109</v>
+        <v>2676.842714740092</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2791.419206082032</v>
+        <v>2818.2974352503397</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2913.3048175261274</v>
+        <v>2926.0406084041642</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2997.9069233766522</v>
+        <v>3023.540573540343</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3116.678444583535</v>
+        <v>3139.9703169644217</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3189.7781393706728</v>
+        <v>3205.2663483533483</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3291.0290566553044</v>
+        <v>3302.2210254150646</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3423.9179132967083</v>
+        <v>3416.275457368679</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>3541.128723976509</v>
+        <v>3508.6794207285366</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>3634.4210234478587</v>
+        <v>3595.736260993796</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3819.4764715343426</v>
+        <v>3763.796643393073</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4011.8838354887016</v>
+        <v>3937.3656017070716</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,15 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>4116.702662345235</v>
+        <v>3985.5761807846447</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45778.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4044.856164988765</v>
       </c>
     </row>
   </sheetData>

--- a/ulaştırmama.xlsx
+++ b/ulaştırmama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>320.8135305851547</v>
+        <v>321.63774314886206</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>325.18364735130825</v>
+        <v>325.9224261982048</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>328.9882522402173</v>
+        <v>329.53026407280277</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>333.2709860977499</v>
+        <v>333.0469642141706</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>337.00755912660054</v>
+        <v>337.407421967592</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>339.1638796295544</v>
+        <v>339.8871803817146</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>342.48195174956624</v>
+        <v>342.2297949773002</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>346.0184006504101</v>
+        <v>346.64314251061154</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>348.65638977467177</v>
+        <v>349.2487687698012</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>350.4113050571847</v>
+        <v>350.0320453279111</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>354.17555130913587</v>
+        <v>354.4851350196954</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>357.50505287327593</v>
+        <v>357.86723115477645</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>361.340829741864</v>
+        <v>360.53386550283136</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>361.95415035878807</v>
+        <v>362.4507537757455</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>365.71370135985836</v>
+        <v>366.07562951588704</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>368.25816806703097</v>
+        <v>369.24297582105936</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>371.08199473527105</v>
+        <v>371.2054781683153</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>375.7297840664359</v>
+        <v>375.86182754382304</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>379.1670746224032</v>
+        <v>379.6535428567799</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>381.8494748970034</v>
+        <v>381.6246328417947</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>387.0145957075835</v>
+        <v>386.0525921924277</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>390.7250865042049</v>
+        <v>391.5195379191888</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>392.10575433173517</v>
+        <v>392.6151579950652</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>395.96929948737187</v>
+        <v>395.3707039478983</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>397.9692082458233</v>
+        <v>399.7931172505804</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>403.859283555524</v>
+        <v>404.2801747478712</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>407.0060188059589</v>
+        <v>406.4475128030817</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>410.6976064898222</v>
+        <v>410.4613209860629</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>415.1188574771588</v>
+        <v>416.2142107089374</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>420.237681751506</v>
+        <v>419.4864787056453</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>421.9794000844333</v>
+        <v>422.46077259106926</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>426.9936284546845</v>
+        <v>428.38187144449375</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>433.13404823623375</v>
+        <v>433.19937409346034</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>443.5280777344353</v>
+        <v>444.5339542459555</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>451.4533176550636</v>
+        <v>450.8235461186675</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>455.1122339625162</v>
+        <v>455.48759359095544</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>459.39850911142474</v>
+        <v>459.75136761954224</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>464.0923078922315</v>
+        <v>463.1335472601949</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>468.4854845247311</v>
+        <v>469.97113445587644</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>474.19425024903984</v>
+        <v>475.3376477078099</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>478.433300393177</v>
+        <v>478.1268093153693</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>480.8536117898503</v>
+        <v>480.62044882782664</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>489.6153827919944</v>
+        <v>490.9549416807603</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>495.72411091040306</v>
+        <v>493.8950473367925</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>495.8089393938758</v>
+        <v>497.8484632017627</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>493.5927376940106</v>
+        <v>493.0157429467706</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>498.00645054410035</v>
+        <v>498.69376618525666</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>506.0215371017781</v>
+        <v>506.84902168358104</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>508.9053500987054</v>
+        <v>509.0728802955744</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>506.32808801735047</v>
+        <v>505.7465681024215</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>510.7264696646465</v>
+        <v>510.72773595716245</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>511.7314055754966</v>
+        <v>512.6057992579656</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>514.1600333851753</v>
+        <v>513.667211147312</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>527.9633498344655</v>
+        <v>530.4085482185662</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>540.0038888091511</v>
+        <v>539.2754399575973</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>548.7343133532802</v>
+        <v>549.9750909326489</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>568.5566458210834</v>
+        <v>568.7211065269237</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>587.457481047914</v>
+        <v>588.2293135092914</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>606.6750831890694</v>
+        <v>605.834049546474</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>626.6853019224095</v>
+        <v>628.4006521045947</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>668.3030017853923</v>
+        <v>667.135549753366</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>714.7141991753101</v>
+        <v>718.1059830701132</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>755.5549332369351</v>
+        <v>756.0936281831263</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>810.3486758078342</v>
+        <v>810.2238848097916</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>873.5916214059857</v>
+        <v>873.9523548106874</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>917.4925934760028</v>
+        <v>916.7440228220288</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>963.8125506657149</v>
+        <v>965.7610235646438</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1012.8952602364776</v>
+        <v>1011.9368385104552</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1039.5489335903178</v>
+        <v>1037.1910470190605</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1080.290715681696</v>
+        <v>1076.9479838565924</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1130.8464410638185</v>
+        <v>1133.821972197561</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1185.0892582250708</v>
+        <v>1181.967255156503</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1219.0858263278726</v>
+        <v>1221.2800460159563</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1257.195642873304</v>
+        <v>1257.7937328302028</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1300.2909817905788</v>
+        <v>1302.4231385567239</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1342.498192571074</v>
+        <v>1343.805148055598</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1366.9128933866707</v>
+        <v>1374.8643343696392</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1411.227069235442</v>
+        <v>1423.8114742562848</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1463.852878275707</v>
+        <v>1469.1692566228296</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1533.7895725405674</v>
+        <v>1552.4229828970638</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1923.2602153635974</v>
+        <v>1907.970963908192</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2049.2899926062005</v>
+        <v>2037.6632501076601</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2136.3279016020215</v>
+        <v>2125.8513991014115</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2212.0649472057326</v>
+        <v>2203.972920974146</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2306.0536344724687</v>
+        <v>2292.9263343380103</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2418.9189754421773</v>
+        <v>2410.8722063252994</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2476.7302804666947</v>
+        <v>2491.2749093740676</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2520.4643734422393</v>
+        <v>2573.414694058359</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2676.842714740092</v>
+        <v>2696.6377989316693</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2818.2974352503397</v>
+        <v>2792.8548894858345</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2926.0406084041642</v>
+        <v>2905.4303281347</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3023.540573540343</v>
+        <v>2988.3020604557005</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3139.9703169644217</v>
+        <v>3096.822498429466</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3205.2663483533483</v>
+        <v>3165.3783252479193</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3302.2210254150646</v>
+        <v>3258.7453027498677</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3416.275457368679</v>
+        <v>3385.0578187682495</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>3508.6794207285366</v>
+        <v>3495.8703635228594</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>3595.736260993796</v>
+        <v>3590.3397303152756</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3763.796643393073</v>
+        <v>3745.635793531242</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3937.3656017070716</v>
+        <v>3888.122031604455</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>3985.5761807846447</v>
+        <v>4009.52832180074</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,7 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>4044.856164988765</v>
+        <v>4154.19066481202</v>
       </c>
     </row>
   </sheetData>

--- a/ulaştırmama.xlsx
+++ b/ulaştırmama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>321.63774314886206</v>
+        <v>321.7370167333537</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>325.9224261982048</v>
+        <v>326.0275569943914</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>329.53026407280277</v>
+        <v>329.6410057315807</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>333.0469642141706</v>
+        <v>333.172540282425</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>337.407421967592</v>
+        <v>337.53148646278987</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>339.8871803817146</v>
+        <v>340.0143173534924</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>342.2297949773002</v>
+        <v>342.36344450588336</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>346.64314251061154</v>
+        <v>346.7802397609127</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>349.2487687698012</v>
+        <v>349.37664855202564</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>350.0320453279111</v>
+        <v>350.17375869074266</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>354.4851350196954</v>
+        <v>354.60513901654514</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>357.86723115477645</v>
+        <v>358.01451186525213</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>360.53386550283136</v>
+        <v>360.6606071628792</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>362.4507537757455</v>
+        <v>362.5867953441211</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>366.07562951588704</v>
+        <v>366.2090671552931</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>369.24297582105936</v>
+        <v>369.3704156519716</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>371.2054781683153</v>
+        <v>371.34641059615444</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>375.86182754382304</v>
+        <v>375.99733775031916</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>379.6535428567799</v>
+        <v>379.79277014858667</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>381.6246328417947</v>
+        <v>381.76399822691576</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>386.0525921924277</v>
+        <v>386.20631766158215</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>391.5195379191888</v>
+        <v>391.6625372771414</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>392.6151579950652</v>
+        <v>392.7746648256453</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>395.3707039478983</v>
+        <v>395.5030149482019</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>399.7931172505804</v>
+        <v>399.94719109475324</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>404.2801747478712</v>
+        <v>404.4256967433291</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>406.4475128030817</v>
+        <v>406.5989077067616</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>410.4613209860629</v>
+        <v>410.61240118124846</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>416.2142107089374</v>
+        <v>416.36930155234506</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>419.4864787056453</v>
+        <v>419.63447418830344</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>422.46077259106926</v>
+        <v>422.6163673274179</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>428.38187144449375</v>
+        <v>428.4857366980799</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>433.19937409346034</v>
+        <v>433.3790437963516</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>444.5339542459555</v>
+        <v>444.6840858679489</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>450.8235461186675</v>
+        <v>451.03277815280927</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>455.48759359095544</v>
+        <v>455.6737268193751</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>459.75136761954224</v>
+        <v>459.91128609870583</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>463.1335472601949</v>
+        <v>463.31078207137557</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>469.97113445587644</v>
+        <v>470.13725634725006</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>475.3376477078099</v>
+        <v>475.53322018331966</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>478.1268093153693</v>
+        <v>478.26861250190996</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>480.62044882782664</v>
+        <v>480.83117680174354</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>490.9549416807603</v>
+        <v>491.10315031009986</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>493.8950473367925</v>
+        <v>494.1784989957193</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>497.8484632017627</v>
+        <v>497.9899191310644</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>493.0157429467706</v>
+        <v>493.22309217089276</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>498.69376618525666</v>
+        <v>498.8473089136605</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>506.84902168358104</v>
+        <v>507.0906674919417</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>509.0728802955744</v>
+        <v>509.275305958365</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>505.7465681024215</v>
+        <v>505.97309960488656</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>510.72773595716245</v>
+        <v>510.89886460512105</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>512.6057992579656</v>
+        <v>512.7369625906322</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>513.667211147312</v>
+        <v>513.8747356943566</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>530.4085482185662</v>
+        <v>530.538893019496</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>539.2754399575973</v>
+        <v>539.4972917779493</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>549.9750909326489</v>
+        <v>550.1615322515701</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>568.7211065269237</v>
+        <v>568.9192078048798</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>588.2293135092914</v>
+        <v>588.4323698053487</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>605.834049546474</v>
+        <v>605.9842885871097</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>628.4006521045947</v>
+        <v>628.5081845301719</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>667.135549753366</v>
+        <v>667.3462141538711</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>718.1059830701132</v>
+        <v>718.2858771883585</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>756.0936281831263</v>
+        <v>756.4132946089086</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>810.2238848097916</v>
+        <v>810.5815914307578</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>873.9523548106874</v>
+        <v>874.3368446372855</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>916.7440228220288</v>
+        <v>917.2808046389088</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>965.7610235646438</v>
+        <v>966.2631232955968</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1011.9368385104552</v>
+        <v>1012.3601773769655</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1037.1910470190605</v>
+        <v>1037.547424717905</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1076.9479838565924</v>
+        <v>1077.2488001374577</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1133.821972197561</v>
+        <v>1134.2158023890365</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1181.967255156503</v>
+        <v>1182.505809516204</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1221.2800460159563</v>
+        <v>1221.7760636875864</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1257.7937328302028</v>
+        <v>1258.3098485998964</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1302.4231385567239</v>
+        <v>1302.9750297389326</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1343.805148055598</v>
+        <v>1344.2725396124094</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1374.8643343696392</v>
+        <v>1375.4457167070516</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1423.8114742562848</v>
+        <v>1424.057165765622</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1469.1692566228296</v>
+        <v>1469.6737233971044</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1552.4229828970638</v>
+        <v>1552.7399549939007</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1907.970963908192</v>
+        <v>1908.7625384539065</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2037.6632501076601</v>
+        <v>2038.4056696696955</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2125.8513991014115</v>
+        <v>2126.885394987458</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2203.972920974146</v>
+        <v>2204.6544291654022</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2292.9263343380103</v>
+        <v>2293.861312625705</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2410.8722063252994</v>
+        <v>2411.691276275432</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2491.2749093740676</v>
+        <v>2492.191125206295</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2573.414694058359</v>
+        <v>2574.4390892362653</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2696.6377989316693</v>
+        <v>2703.116382618285</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2792.8548894858345</v>
+        <v>2806.7580013726406</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2905.4303281347</v>
+        <v>2887.598584256918</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2988.3020604557005</v>
+        <v>2958.393147405753</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3096.822498429466</v>
+        <v>3067.7709732030703</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3165.3783252479193</v>
+        <v>3141.7198588601</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3258.7453027498677</v>
+        <v>3243.3488877866807</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3385.0578187682495</v>
+        <v>3382.08338175158</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>3495.8703635228594</v>
+        <v>3509.397643313935</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>3590.3397303152756</v>
+        <v>3625.340000259663</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3745.635793531242</v>
+        <v>3807.574868472693</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3888.122031604455</v>
+        <v>3983.354096747507</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>4009.52832180074</v>
+        <v>4134.964164384844</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,15 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>4154.19066481202</v>
+        <v>4315.5926872913415</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45809.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4568.703899446655</v>
       </c>
     </row>
   </sheetData>

--- a/ulaştırmama.xlsx
+++ b/ulaştırmama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>321.7370167333537</v>
+        <v>321.73145201458345</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>326.0275569943914</v>
+        <v>326.0216920598971</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>329.6410057315807</v>
+        <v>329.6348558232139</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>333.172540282425</v>
+        <v>333.1656444331499</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>337.53148646278987</v>
+        <v>337.5246588609389</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>340.0143173534924</v>
+        <v>340.0073324773061</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>342.36344450588336</v>
+        <v>342.35613091086714</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>346.7802397609127</v>
+        <v>346.77274682526865</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>349.37664855202564</v>
+        <v>349.3696113010986</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>350.17375869074266</v>
+        <v>350.16602993490454</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>354.60513901654514</v>
+        <v>354.5984859579951</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>358.01451186525213</v>
+        <v>358.00649186584155</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>360.6606071628792</v>
+        <v>360.6536047503108</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>362.5867953441211</v>
+        <v>362.5793261543663</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>366.2090671552931</v>
+        <v>366.2017202338857</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>369.3704156519716</v>
+        <v>369.363362071479</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>371.34641059615444</v>
+        <v>371.33867984989996</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>375.99733775031916</v>
+        <v>375.98986903873197</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>379.79277014858667</v>
+        <v>379.7851088934805</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>381.76399822691576</v>
+        <v>381.75632609721265</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>386.20631766158215</v>
+        <v>386.19792080445166</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>391.6625372771414</v>
+        <v>391.65466571050877</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>392.7746648256453</v>
+        <v>392.7659670914807</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>395.5030149482019</v>
+        <v>395.49566895685484</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>399.94719109475324</v>
+        <v>399.93875103009947</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>404.4256967433291</v>
+        <v>404.4176751132262</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>406.5989077067616</v>
+        <v>406.59058867075385</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>410.61240118124846</v>
+        <v>410.6040903110778</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>416.36930155234506</v>
+        <v>416.36078002475085</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>419.63447418830344</v>
+        <v>419.62630036088245</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>422.6163673274179</v>
+        <v>422.607808422975</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>428.4857366980799</v>
+        <v>428.479747807939</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>433.3790437963516</v>
+        <v>433.36926322690863</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>444.6840858679489</v>
+        <v>444.67575872148086</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>451.03277815280927</v>
+        <v>451.02149005930545</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>455.6737268193751</v>
+        <v>455.66358243806286</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>459.91128609870583</v>
+        <v>459.9024416310225</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>463.31078207137557</v>
+        <v>463.301066910197</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>470.13725634725006</v>
+        <v>470.1280831800459</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>475.53322018331966</v>
+        <v>475.52256748698187</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>478.26861250190996</v>
+        <v>478.26063719725414</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>480.83117680174354</v>
+        <v>480.8197572108853</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>491.10315031009986</v>
+        <v>491.0948319169691</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>494.1784989957193</v>
+        <v>494.16342607214494</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>497.9899191310644</v>
+        <v>497.9819247193521</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>493.22309217089276</v>
+        <v>493.21181765165295</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>498.8473089136605</v>
+        <v>498.8387090609051</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>507.0906674919417</v>
+        <v>507.0776569413373</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>509.275305958365</v>
+        <v>509.26424831381706</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>505.97309960488656</v>
+        <v>505.9608443402907</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>510.89886460512105</v>
+        <v>510.8893649893674</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>512.7369625906322</v>
+        <v>512.7294531487101</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>513.8747356943566</v>
+        <v>513.8634132180626</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>530.538893019496</v>
+        <v>530.531391469381</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>539.4972917779493</v>
+        <v>539.4852072978224</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>550.1615322515701</v>
+        <v>550.1511941033126</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>568.9192078048798</v>
+        <v>568.9082530742226</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>588.4323698053487</v>
+        <v>588.4211312117678</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>605.9842885871097</v>
+        <v>605.9756512504865</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>628.5081845301719</v>
+        <v>628.5016343692553</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>667.3462141538711</v>
+        <v>667.3344462619975</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>718.2858771883585</v>
+        <v>718.2755504025656</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>756.4132946089086</v>
+        <v>756.3959207522793</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>810.5815914307578</v>
+        <v>810.5622184130342</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>874.3368446372855</v>
+        <v>874.316017612843</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>917.2808046389088</v>
+        <v>917.2522957888801</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>966.2631232955968</v>
+        <v>966.2362467166332</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1012.3601773769655</v>
+        <v>1012.3371676110725</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1037.547424717905</v>
+        <v>1037.5276578172297</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1077.2488001374577</v>
+        <v>1077.231754905034</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1134.2158023890365</v>
+        <v>1134.1940057674494</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1182.505809516204</v>
+        <v>1182.4767053429266</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1221.7760636875864</v>
+        <v>1221.7490136305428</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1258.3098485998964</v>
+        <v>1258.2817341420646</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1302.9750297389326</v>
+        <v>1302.9450570713268</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1344.2725396124094</v>
+        <v>1344.2467181401767</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1375.4457167070516</v>
+        <v>1375.4141613255265</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1424.057165765622</v>
+        <v>1424.0422853831003</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1469.6737233971044</v>
+        <v>1469.6458860442167</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1552.7399549939007</v>
+        <v>1552.7212747685285</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1908.7625384539065</v>
+        <v>1908.719377358814</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2038.4056696696955</v>
+        <v>2038.3646537205761</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2126.885394987458</v>
+        <v>2126.829713252557</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2204.6544291654022</v>
+        <v>2204.6162086164495</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2293.861312625705</v>
+        <v>2293.8102968958005</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2411.691276275432</v>
+        <v>2411.6458455806323</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2492.191125206295</v>
+        <v>2492.140711364874</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2574.4390892362653</v>
+        <v>2574.383136375294</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2703.116382618285</v>
+        <v>2702.7518941252956</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2806.7580013726406</v>
+        <v>2805.9995946464137</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2887.598584256918</v>
+        <v>2888.5561737927956</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2958.393147405753</v>
+        <v>2960.0242924933063</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3067.7709732030703</v>
+        <v>3069.3545745174456</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3141.7198588601</v>
+        <v>3143.01415054513</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3243.3488877866807</v>
+        <v>3244.194822985279</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3382.08338175158</v>
+        <v>3382.254117587393</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>3509.397643313935</v>
+        <v>3508.665052422215</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>3625.340000259663</v>
+        <v>3623.4276354673457</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3807.574868472693</v>
+        <v>3804.17139255135</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3983.354096747507</v>
+        <v>3978.097712793366</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>4134.964164384844</v>
+        <v>4128.027941130767</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,7 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>4315.5926872913415</v>
+        <v>4306.611999864211</v>
       </c>
     </row>
     <row r="104">
@@ -896,7 +896,7 @@
         <v>45809.0</v>
       </c>
       <c r="B104" t="n">
-        <v>4568.703899446655</v>
+        <v>4553.824705755445</v>
       </c>
     </row>
   </sheetData>
